--- a/data/pca/factorExposure/factorExposure_2014-09-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.00722204688360611</v>
+        <v>0.01904205397621706</v>
       </c>
       <c r="C2">
-        <v>-0.1164130802056197</v>
+        <v>-0.07428529227596144</v>
       </c>
       <c r="D2">
-        <v>0.003363310512607098</v>
+        <v>0.03087813101922042</v>
       </c>
       <c r="E2">
-        <v>-0.2379938980397015</v>
+        <v>0.100789902267902</v>
       </c>
       <c r="F2">
-        <v>-0.06064189782420862</v>
+        <v>0.1237536827790478</v>
       </c>
       <c r="G2">
-        <v>-0.06111784913137189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.006649623016800741</v>
+      </c>
+      <c r="H2">
+        <v>-0.06017398575743235</v>
+      </c>
+      <c r="I2">
+        <v>0.0143241794033477</v>
+      </c>
+      <c r="J2">
+        <v>-0.003342984607062103</v>
+      </c>
+      <c r="K2">
+        <v>0.2031159327183652</v>
+      </c>
+      <c r="L2">
+        <v>0.1667223597555216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.01647037645876031</v>
+        <v>0.01755103849300478</v>
       </c>
       <c r="C4">
-        <v>-0.1609543384941356</v>
+        <v>-0.1432071810582289</v>
       </c>
       <c r="D4">
-        <v>0.006620485804700062</v>
+        <v>0.06057428529470327</v>
       </c>
       <c r="E4">
-        <v>-0.07294513374938923</v>
+        <v>-0.008668737149039674</v>
       </c>
       <c r="F4">
-        <v>0.07243238921185066</v>
+        <v>0.07352154085676876</v>
       </c>
       <c r="G4">
-        <v>-0.0251172661135083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0162088374842782</v>
+      </c>
+      <c r="H4">
+        <v>-0.09769305923046814</v>
+      </c>
+      <c r="I4">
+        <v>0.01370182786096819</v>
+      </c>
+      <c r="J4">
+        <v>0.102248704138062</v>
+      </c>
+      <c r="K4">
+        <v>0.1699877228233095</v>
+      </c>
+      <c r="L4">
+        <v>0.01294018602568498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.02776687477326627</v>
+        <v>0.03901861296843377</v>
       </c>
       <c r="C6">
-        <v>-0.07946061168399079</v>
+        <v>-0.08758737309967979</v>
       </c>
       <c r="D6">
-        <v>0.05308379224769115</v>
+        <v>0.02995467137916845</v>
       </c>
       <c r="E6">
-        <v>-0.06473887543999257</v>
+        <v>0.04541917710056152</v>
       </c>
       <c r="F6">
-        <v>0.01098007616671548</v>
+        <v>0.01758206705354867</v>
       </c>
       <c r="G6">
-        <v>0.009737183140639516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.041609402568619</v>
+      </c>
+      <c r="H6">
+        <v>-0.03385642589427126</v>
+      </c>
+      <c r="I6">
+        <v>-0.05508913143577753</v>
+      </c>
+      <c r="J6">
+        <v>-0.09248032275872826</v>
+      </c>
+      <c r="K6">
+        <v>0.074599677431355</v>
+      </c>
+      <c r="L6">
+        <v>-0.03956758505721735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.002720322982225184</v>
+        <v>0.01800908775222002</v>
       </c>
       <c r="C7">
-        <v>-0.06794377618655165</v>
+        <v>-0.07518755482979868</v>
       </c>
       <c r="D7">
-        <v>0.03176734797262173</v>
+        <v>0.02795527843383119</v>
       </c>
       <c r="E7">
-        <v>-0.02768173235654808</v>
+        <v>-0.01501799459196976</v>
       </c>
       <c r="F7">
-        <v>0.04449088977602326</v>
+        <v>0.001592393926288016</v>
       </c>
       <c r="G7">
-        <v>0.007990532806544267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03910684579300299</v>
+      </c>
+      <c r="H7">
+        <v>-0.1011247255509921</v>
+      </c>
+      <c r="I7">
+        <v>-0.01123758130597003</v>
+      </c>
+      <c r="J7">
+        <v>0.01703503067577941</v>
+      </c>
+      <c r="K7">
+        <v>0.0449277242333322</v>
+      </c>
+      <c r="L7">
+        <v>0.02768468681651872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.009228478422636051</v>
+        <v>-0.0006977704859171811</v>
       </c>
       <c r="C8">
-        <v>-0.07260215654614983</v>
+        <v>-0.06082013355195037</v>
       </c>
       <c r="D8">
-        <v>0.03023541240819995</v>
+        <v>0.04266343041484353</v>
       </c>
       <c r="E8">
-        <v>-0.08931124916707003</v>
+        <v>0.02373090188042628</v>
       </c>
       <c r="F8">
-        <v>0.03266205490908567</v>
+        <v>0.05620768059925808</v>
       </c>
       <c r="G8">
-        <v>-0.02962712314164618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01288883734598719</v>
+      </c>
+      <c r="H8">
+        <v>-0.05867104683772635</v>
+      </c>
+      <c r="I8">
+        <v>-0.004505146434292623</v>
+      </c>
+      <c r="J8">
+        <v>0.01305854612808306</v>
+      </c>
+      <c r="K8">
+        <v>0.004139002851201445</v>
+      </c>
+      <c r="L8">
+        <v>0.00804912137204364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.009401398391024232</v>
+        <v>0.01318035726865485</v>
       </c>
       <c r="C9">
-        <v>-0.1236592402772465</v>
+        <v>-0.1036306899545305</v>
       </c>
       <c r="D9">
-        <v>0.03121966472853709</v>
+        <v>0.04285939599010755</v>
       </c>
       <c r="E9">
-        <v>-0.0306494172694177</v>
+        <v>0.003179357221785408</v>
       </c>
       <c r="F9">
-        <v>0.03267086001660443</v>
+        <v>0.03054397127533819</v>
       </c>
       <c r="G9">
-        <v>0.02606024137100938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.002477185402318689</v>
+      </c>
+      <c r="H9">
+        <v>-0.09256686255532739</v>
+      </c>
+      <c r="I9">
+        <v>-0.0193484280463511</v>
+      </c>
+      <c r="J9">
+        <v>0.0652330255515431</v>
+      </c>
+      <c r="K9">
+        <v>0.07804916842749898</v>
+      </c>
+      <c r="L9">
+        <v>-0.01254137287265841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.2738571652388874</v>
+        <v>0.2468626949498751</v>
       </c>
       <c r="C10">
-        <v>0.08649136192958704</v>
+        <v>0.09386882237581887</v>
       </c>
       <c r="D10">
-        <v>-0.02171356587044338</v>
+        <v>-0.0035154077223685</v>
       </c>
       <c r="E10">
-        <v>0.03691887046407626</v>
+        <v>0.01249662765661555</v>
       </c>
       <c r="F10">
-        <v>0.009863792735401656</v>
+        <v>-0.01572140788245756</v>
       </c>
       <c r="G10">
-        <v>0.01945960625294308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01646766586424282</v>
+      </c>
+      <c r="H10">
+        <v>-0.03681831959936829</v>
+      </c>
+      <c r="I10">
+        <v>0.1419929312344417</v>
+      </c>
+      <c r="J10">
+        <v>0.1292327152076846</v>
+      </c>
+      <c r="K10">
+        <v>-0.09245779829512962</v>
+      </c>
+      <c r="L10">
+        <v>-0.002067715878071288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.007385373169821652</v>
+        <v>0.0164748297891286</v>
       </c>
       <c r="C11">
-        <v>-0.0721054135777605</v>
+        <v>-0.08443751634670019</v>
       </c>
       <c r="D11">
-        <v>0.02523606525309495</v>
+        <v>0.03794042185955294</v>
       </c>
       <c r="E11">
-        <v>0.01762608512642342</v>
+        <v>-0.008544314788494203</v>
       </c>
       <c r="F11">
-        <v>0.02111940539142549</v>
+        <v>-0.0133703114116149</v>
       </c>
       <c r="G11">
-        <v>0.04020689726478379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007929958622091251</v>
+      </c>
+      <c r="H11">
+        <v>-0.03177036625800603</v>
+      </c>
+      <c r="I11">
+        <v>-0.02704333383261667</v>
+      </c>
+      <c r="J11">
+        <v>0.008464332945967106</v>
+      </c>
+      <c r="K11">
+        <v>-0.02110721603913695</v>
+      </c>
+      <c r="L11">
+        <v>-0.05804561189021816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.006552880202892399</v>
+        <v>0.01661893715881229</v>
       </c>
       <c r="C12">
-        <v>-0.05748173527504222</v>
+        <v>-0.05955877121491399</v>
       </c>
       <c r="D12">
-        <v>0.03045212953373174</v>
+        <v>0.02231417586613397</v>
       </c>
       <c r="E12">
-        <v>0.01205251067650113</v>
+        <v>0.01419498962630763</v>
       </c>
       <c r="F12">
-        <v>-0.006290370852693489</v>
+        <v>-0.02127783791655935</v>
       </c>
       <c r="G12">
-        <v>0.06930396324833651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02592560987204295</v>
+      </c>
+      <c r="H12">
+        <v>-0.03026800844781416</v>
+      </c>
+      <c r="I12">
+        <v>-0.02109539187122614</v>
+      </c>
+      <c r="J12">
+        <v>0.009431367160581914</v>
+      </c>
+      <c r="K12">
+        <v>-0.008838817917137655</v>
+      </c>
+      <c r="L12">
+        <v>-0.05384885451684693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.01639636362823593</v>
+        <v>0.006236315485776947</v>
       </c>
       <c r="C13">
-        <v>-0.1343898450984834</v>
+        <v>-0.1227590426097558</v>
       </c>
       <c r="D13">
-        <v>0.05338777016325105</v>
+        <v>0.04178119766822116</v>
       </c>
       <c r="E13">
-        <v>-0.05418129411804896</v>
+        <v>0.1562463669127746</v>
       </c>
       <c r="F13">
-        <v>0.005657804892231613</v>
+        <v>0.05414220636672102</v>
       </c>
       <c r="G13">
-        <v>0.174842167034444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1133980650660068</v>
+      </c>
+      <c r="H13">
+        <v>-0.1331880756394356</v>
+      </c>
+      <c r="I13">
+        <v>0.208182226891868</v>
+      </c>
+      <c r="J13">
+        <v>-0.05543518920591464</v>
+      </c>
+      <c r="K13">
+        <v>-0.2107680074047106</v>
+      </c>
+      <c r="L13">
+        <v>0.0617571862473564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.008287105586584458</v>
+        <v>0.01898963012312281</v>
       </c>
       <c r="C14">
-        <v>-0.07112735878464548</v>
+        <v>-0.07614659309533708</v>
       </c>
       <c r="D14">
-        <v>0.02836916902659343</v>
+        <v>0.0499977437327376</v>
       </c>
       <c r="E14">
-        <v>-0.03553136244410135</v>
+        <v>0.0473956907497245</v>
       </c>
       <c r="F14">
-        <v>-0.007920685703097532</v>
+        <v>-0.0220743915990786</v>
       </c>
       <c r="G14">
-        <v>0.0615002035326525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0702213362104087</v>
+      </c>
+      <c r="H14">
+        <v>-0.209789286027156</v>
+      </c>
+      <c r="I14">
+        <v>-0.0362692461125449</v>
+      </c>
+      <c r="J14">
+        <v>-0.03897266711277849</v>
+      </c>
+      <c r="K14">
+        <v>-0.104942773284944</v>
+      </c>
+      <c r="L14">
+        <v>0.1453121079843062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.007996114964388262</v>
+        <v>0.002599057351796968</v>
       </c>
       <c r="C15">
-        <v>-0.1003652267000146</v>
+        <v>-0.08113309374249762</v>
       </c>
       <c r="D15">
-        <v>0.03952172977095958</v>
+        <v>0.0354573706269795</v>
       </c>
       <c r="E15">
-        <v>-0.05945402940290323</v>
+        <v>0.008466207338341416</v>
       </c>
       <c r="F15">
-        <v>0.03232603846260316</v>
+        <v>0.02132868792763905</v>
       </c>
       <c r="G15">
-        <v>0.02795133664635874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03002953751236544</v>
+      </c>
+      <c r="H15">
+        <v>-0.09232614344758512</v>
+      </c>
+      <c r="I15">
+        <v>-0.03123284673964787</v>
+      </c>
+      <c r="J15">
+        <v>0.008940981346725468</v>
+      </c>
+      <c r="K15">
+        <v>-0.05248299270703724</v>
+      </c>
+      <c r="L15">
+        <v>0.02798230717927257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.01015032129226395</v>
+        <v>0.01544566677081553</v>
       </c>
       <c r="C16">
-        <v>-0.06462891244935592</v>
+        <v>-0.06417913701389689</v>
       </c>
       <c r="D16">
-        <v>0.01753905520402646</v>
+        <v>0.02629936950283748</v>
       </c>
       <c r="E16">
-        <v>0.01217726468231294</v>
+        <v>-0.003390404023730936</v>
       </c>
       <c r="F16">
-        <v>-0.0001380288562043334</v>
+        <v>-0.01021619820406004</v>
       </c>
       <c r="G16">
-        <v>0.03256310568369826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.007163470287162656</v>
+      </c>
+      <c r="H16">
+        <v>-0.02456431707148332</v>
+      </c>
+      <c r="I16">
+        <v>-0.02194667488202185</v>
+      </c>
+      <c r="J16">
+        <v>0.007678899798835234</v>
+      </c>
+      <c r="K16">
+        <v>-0.004233709708325507</v>
+      </c>
+      <c r="L16">
+        <v>-0.04110536160836957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.01345879539107698</v>
+        <v>0.01426407620121163</v>
       </c>
       <c r="C20">
-        <v>-0.09069307874971277</v>
+        <v>-0.08586140625282571</v>
       </c>
       <c r="D20">
-        <v>0.01944032826954811</v>
+        <v>0.02569316178224286</v>
       </c>
       <c r="E20">
-        <v>0.00855356587872177</v>
+        <v>-0.02534945297795181</v>
       </c>
       <c r="F20">
-        <v>0.05664915595809675</v>
+        <v>-0.002973512157185089</v>
       </c>
       <c r="G20">
-        <v>0.0820033635181458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03829943370784525</v>
+      </c>
+      <c r="H20">
+        <v>-0.07247629602483768</v>
+      </c>
+      <c r="I20">
+        <v>-0.01989411126064008</v>
+      </c>
+      <c r="J20">
+        <v>0.01432034369676072</v>
+      </c>
+      <c r="K20">
+        <v>0.01363845683129052</v>
+      </c>
+      <c r="L20">
+        <v>-0.00989397386276876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.0006890952454901157</v>
+        <v>0.01386710894610543</v>
       </c>
       <c r="C21">
-        <v>-0.09163172140911985</v>
+        <v>-0.07288967535954055</v>
       </c>
       <c r="D21">
-        <v>-0.02820116733811649</v>
+        <v>0.02238294031280181</v>
       </c>
       <c r="E21">
-        <v>-0.0496779358589181</v>
+        <v>0.08911465403294447</v>
       </c>
       <c r="F21">
-        <v>-0.04543866818180164</v>
+        <v>-0.02080066991466747</v>
       </c>
       <c r="G21">
-        <v>0.05461521204710731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01406607690675831</v>
+      </c>
+      <c r="H21">
+        <v>-0.1410828590400574</v>
+      </c>
+      <c r="I21">
+        <v>0.02778057722299331</v>
+      </c>
+      <c r="J21">
+        <v>-0.007761121025929083</v>
+      </c>
+      <c r="K21">
+        <v>-0.04854592192972984</v>
+      </c>
+      <c r="L21">
+        <v>-0.01039932793441956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.04218684350022636</v>
+        <v>0.006779456130592733</v>
       </c>
       <c r="C22">
-        <v>-0.1975795811660209</v>
+        <v>-0.175079765569615</v>
       </c>
       <c r="D22">
-        <v>-0.08595251270455953</v>
+        <v>0.01622556409744709</v>
       </c>
       <c r="E22">
-        <v>-0.2898992410932978</v>
+        <v>0.07503755960616228</v>
       </c>
       <c r="F22">
-        <v>0.1675293325535893</v>
+        <v>0.5322615241232048</v>
       </c>
       <c r="G22">
-        <v>-0.1922765735673282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.005662535783967759</v>
+      </c>
+      <c r="H22">
+        <v>0.2875810405846147</v>
+      </c>
+      <c r="I22">
+        <v>0.004668433572092782</v>
+      </c>
+      <c r="J22">
+        <v>-0.0004266807025301179</v>
+      </c>
+      <c r="K22">
+        <v>-0.2178550799007536</v>
+      </c>
+      <c r="L22">
+        <v>-0.04674908505765658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.04166553678548122</v>
+        <v>0.01183847853806315</v>
       </c>
       <c r="C23">
-        <v>-0.1981571553699882</v>
+        <v>-0.1789407783588247</v>
       </c>
       <c r="D23">
-        <v>-0.08569857305275679</v>
+        <v>0.01544101232192397</v>
       </c>
       <c r="E23">
-        <v>-0.2860327450793071</v>
+        <v>0.07331209920438268</v>
       </c>
       <c r="F23">
-        <v>0.1653486531206364</v>
+        <v>0.5137400690677377</v>
       </c>
       <c r="G23">
-        <v>-0.1915949782101942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.007840802813159162</v>
+      </c>
+      <c r="H23">
+        <v>0.2664749262285057</v>
+      </c>
+      <c r="I23">
+        <v>-0.00232517839510851</v>
+      </c>
+      <c r="J23">
+        <v>0.003206463592922058</v>
+      </c>
+      <c r="K23">
+        <v>-0.2039372214776969</v>
+      </c>
+      <c r="L23">
+        <v>-0.05108095398039053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.003883908510551841</v>
+        <v>0.01659745000329878</v>
       </c>
       <c r="C24">
-        <v>-0.06692051891277834</v>
+        <v>-0.06928571957225216</v>
       </c>
       <c r="D24">
-        <v>0.0388842833754186</v>
+        <v>0.03888107706548368</v>
       </c>
       <c r="E24">
-        <v>0.01214032578883742</v>
+        <v>-0.006642624336748471</v>
       </c>
       <c r="F24">
-        <v>0.01614391573528728</v>
+        <v>-0.01025851693697994</v>
       </c>
       <c r="G24">
-        <v>0.05445133939515524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02338003700683116</v>
+      </c>
+      <c r="H24">
+        <v>-0.04331592521417186</v>
+      </c>
+      <c r="I24">
+        <v>-0.02379076723566724</v>
+      </c>
+      <c r="J24">
+        <v>0.01470772243425026</v>
+      </c>
+      <c r="K24">
+        <v>-0.01190563514338101</v>
+      </c>
+      <c r="L24">
+        <v>-0.04586129892400885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.007623835991621345</v>
+        <v>0.02079127810290115</v>
       </c>
       <c r="C25">
-        <v>-0.07001537191981377</v>
+        <v>-0.07133988520746731</v>
       </c>
       <c r="D25">
-        <v>0.01713081044105767</v>
+        <v>0.0288319330388755</v>
       </c>
       <c r="E25">
-        <v>0.01885422066299666</v>
+        <v>-0.007497403923065644</v>
       </c>
       <c r="F25">
-        <v>0.01417778514559025</v>
+        <v>-0.007491299589606883</v>
       </c>
       <c r="G25">
-        <v>0.04966252594175345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01672406901863653</v>
+      </c>
+      <c r="H25">
+        <v>-0.03762927009279058</v>
+      </c>
+      <c r="I25">
+        <v>-0.01465615582017231</v>
+      </c>
+      <c r="J25">
+        <v>0.01889304665448766</v>
+      </c>
+      <c r="K25">
+        <v>-0.02471106588364173</v>
+      </c>
+      <c r="L25">
+        <v>-0.03445901909191534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.007104220599155603</v>
+        <v>0.02483002126530959</v>
       </c>
       <c r="C26">
-        <v>-0.06514985168238423</v>
+        <v>-0.06121525898961279</v>
       </c>
       <c r="D26">
-        <v>0.05443891669641795</v>
+        <v>0.06397332816689565</v>
       </c>
       <c r="E26">
-        <v>-0.00913547682817889</v>
+        <v>-0.006394896359908965</v>
       </c>
       <c r="F26">
-        <v>-0.01331203752169339</v>
+        <v>-0.01935299395564347</v>
       </c>
       <c r="G26">
-        <v>0.03626947537685186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007718438267760011</v>
+      </c>
+      <c r="H26">
+        <v>-0.1008754848955777</v>
+      </c>
+      <c r="I26">
+        <v>-0.05747081744318296</v>
+      </c>
+      <c r="J26">
+        <v>0.0505072633673186</v>
+      </c>
+      <c r="K26">
+        <v>0.1071858489538983</v>
+      </c>
+      <c r="L26">
+        <v>-0.06148190423920286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.3737158770561041</v>
+        <v>0.3173241211740493</v>
       </c>
       <c r="C28">
-        <v>0.09952818080293074</v>
+        <v>0.1052484600028814</v>
       </c>
       <c r="D28">
-        <v>-0.02743155743492142</v>
+        <v>-0.03326801770858966</v>
       </c>
       <c r="E28">
-        <v>0.09228802608852515</v>
+        <v>0.02912050657469126</v>
       </c>
       <c r="F28">
-        <v>-0.08638292585774741</v>
+        <v>0.03150639678799453</v>
       </c>
       <c r="G28">
-        <v>-0.01052263366594915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1311796150566232</v>
+      </c>
+      <c r="H28">
+        <v>-0.05612960725288584</v>
+      </c>
+      <c r="I28">
+        <v>0.2088026755040552</v>
+      </c>
+      <c r="J28">
+        <v>0.02577619003745845</v>
+      </c>
+      <c r="K28">
+        <v>0.006810776639996812</v>
+      </c>
+      <c r="L28">
+        <v>-0.02898890362078285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.007499327269180902</v>
+        <v>0.01349295403854603</v>
       </c>
       <c r="C29">
-        <v>-0.07482699685884277</v>
+        <v>-0.08144254129554022</v>
       </c>
       <c r="D29">
-        <v>0.04243537586469424</v>
+        <v>0.05495113656352005</v>
       </c>
       <c r="E29">
-        <v>-0.03327119492756862</v>
+        <v>0.05758150609739937</v>
       </c>
       <c r="F29">
-        <v>0.007361115591624518</v>
+        <v>-0.01845429801159996</v>
       </c>
       <c r="G29">
-        <v>0.09143449836464591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1094959655314423</v>
+      </c>
+      <c r="H29">
+        <v>-0.2970486618465632</v>
+      </c>
+      <c r="I29">
+        <v>-0.02687806243516498</v>
+      </c>
+      <c r="J29">
+        <v>-0.05193659747021449</v>
+      </c>
+      <c r="K29">
+        <v>-0.159985253886966</v>
+      </c>
+      <c r="L29">
+        <v>0.2763390423823048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.03525085453979371</v>
+        <v>0.03132311271047895</v>
       </c>
       <c r="C30">
-        <v>-0.1781009475026482</v>
+        <v>-0.1440369209982619</v>
       </c>
       <c r="D30">
-        <v>0.05927218363542137</v>
+        <v>0.05666230950280667</v>
       </c>
       <c r="E30">
-        <v>-0.0428154404739932</v>
+        <v>0.009160073429600181</v>
       </c>
       <c r="F30">
-        <v>0.0450100958134908</v>
+        <v>0.06472861422425177</v>
       </c>
       <c r="G30">
-        <v>-0.008224201282606704</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.00930604200085341</v>
+      </c>
+      <c r="H30">
+        <v>-0.02891154086235714</v>
+      </c>
+      <c r="I30">
+        <v>-0.04123844116506795</v>
+      </c>
+      <c r="J30">
+        <v>0.003400415306963958</v>
+      </c>
+      <c r="K30">
+        <v>0.09085880841131365</v>
+      </c>
+      <c r="L30">
+        <v>-0.02747520599012747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.004380723352483779</v>
+        <v>0.01318041956672801</v>
       </c>
       <c r="C31">
-        <v>-0.06427196591277896</v>
+        <v>-0.08151751020116638</v>
       </c>
       <c r="D31">
-        <v>0.03657959297948254</v>
+        <v>0.04099881634819091</v>
       </c>
       <c r="E31">
-        <v>0.01492124635143351</v>
+        <v>0.002289954640482162</v>
       </c>
       <c r="F31">
-        <v>-0.009661673952191479</v>
+        <v>-0.002853847727091446</v>
       </c>
       <c r="G31">
-        <v>0.01458932592913238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02837148201876552</v>
+      </c>
+      <c r="H31">
+        <v>-0.03621211717802258</v>
+      </c>
+      <c r="I31">
+        <v>-0.02173253424080071</v>
+      </c>
+      <c r="J31">
+        <v>0.01677842162925913</v>
+      </c>
+      <c r="K31">
+        <v>-0.04011088743304863</v>
+      </c>
+      <c r="L31">
+        <v>-0.04392195373743975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.01982160997539277</v>
+        <v>0.02186269726749209</v>
       </c>
       <c r="C32">
-        <v>-0.08332526248725232</v>
+        <v>-0.05526747087640359</v>
       </c>
       <c r="D32">
-        <v>-0.005933832887010749</v>
+        <v>0.01784391973820834</v>
       </c>
       <c r="E32">
-        <v>-0.1622806889981883</v>
+        <v>0.09876976849018129</v>
       </c>
       <c r="F32">
-        <v>0.01512693557047218</v>
+        <v>0.06618595890659809</v>
       </c>
       <c r="G32">
-        <v>0.06086361604263753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06446176489300402</v>
+      </c>
+      <c r="H32">
+        <v>-0.1733575911496265</v>
+      </c>
+      <c r="I32">
+        <v>0.2620553479410166</v>
+      </c>
+      <c r="J32">
+        <v>-0.03493267970946311</v>
+      </c>
+      <c r="K32">
+        <v>-0.02708569129954865</v>
+      </c>
+      <c r="L32">
+        <v>0.1507201177632249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.01628161698614106</v>
+        <v>0.01773277780912925</v>
       </c>
       <c r="C33">
-        <v>-0.09758913435212056</v>
+        <v>-0.1077848613446984</v>
       </c>
       <c r="D33">
-        <v>0.06047549616151768</v>
+        <v>0.04816251593714062</v>
       </c>
       <c r="E33">
-        <v>-0.01082022946895216</v>
+        <v>-0.003430963684670538</v>
       </c>
       <c r="F33">
-        <v>0.003549657082771449</v>
+        <v>0.01335836625250432</v>
       </c>
       <c r="G33">
-        <v>0.02956194508079911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02216501597304814</v>
+      </c>
+      <c r="H33">
+        <v>-0.05886512960831068</v>
+      </c>
+      <c r="I33">
+        <v>0.008938969777941529</v>
+      </c>
+      <c r="J33">
+        <v>0.02767299458629263</v>
+      </c>
+      <c r="K33">
+        <v>-0.006224380688030491</v>
+      </c>
+      <c r="L33">
+        <v>-0.02694509814117922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.002964987042064448</v>
+        <v>0.01623069440981943</v>
       </c>
       <c r="C34">
-        <v>-0.05376376057488267</v>
+        <v>-0.05132873615871297</v>
       </c>
       <c r="D34">
-        <v>0.02109589190526123</v>
+        <v>0.01994567599127308</v>
       </c>
       <c r="E34">
-        <v>-0.001741512074379748</v>
+        <v>0.001868470474646238</v>
       </c>
       <c r="F34">
-        <v>-0.006854565096219467</v>
+        <v>-0.01206413308890417</v>
       </c>
       <c r="G34">
-        <v>0.04169414523025785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01696138020163858</v>
+      </c>
+      <c r="H34">
+        <v>-0.008744602586848142</v>
+      </c>
+      <c r="I34">
+        <v>-0.01983894169696806</v>
+      </c>
+      <c r="J34">
+        <v>0.01741861240136602</v>
+      </c>
+      <c r="K34">
+        <v>-0.008819930750463402</v>
+      </c>
+      <c r="L34">
+        <v>-0.04179428378735649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.003289030920943546</v>
+        <v>0.009777758033303255</v>
       </c>
       <c r="C35">
-        <v>-0.0210486642630865</v>
+        <v>-0.04174127391226909</v>
       </c>
       <c r="D35">
-        <v>0.007102646458413086</v>
+        <v>0.0216171480223144</v>
       </c>
       <c r="E35">
-        <v>-0.01006015238406517</v>
+        <v>0.01708549308278526</v>
       </c>
       <c r="F35">
-        <v>0.008111476114478143</v>
+        <v>-0.001726625724027614</v>
       </c>
       <c r="G35">
-        <v>0.02602590484528506</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04356594046372361</v>
+      </c>
+      <c r="H35">
+        <v>-0.1528793701643194</v>
+      </c>
+      <c r="I35">
+        <v>-0.01013295917196818</v>
+      </c>
+      <c r="J35">
+        <v>0.006279038019411823</v>
+      </c>
+      <c r="K35">
+        <v>-0.1370753485633672</v>
+      </c>
+      <c r="L35">
+        <v>0.1426218538995313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.005742649744426936</v>
+        <v>0.0157734743474992</v>
       </c>
       <c r="C36">
-        <v>-0.05509231687988832</v>
+        <v>-0.05051497236769657</v>
       </c>
       <c r="D36">
-        <v>0.04766785109871213</v>
+        <v>0.04872759867162239</v>
       </c>
       <c r="E36">
-        <v>-0.003108669996290545</v>
+        <v>0.004913122667345143</v>
       </c>
       <c r="F36">
-        <v>-0.004916192678803141</v>
+        <v>-0.001726201627520112</v>
       </c>
       <c r="G36">
-        <v>0.01764427068630483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.005310861922596924</v>
+      </c>
+      <c r="H36">
+        <v>-0.07270341326987598</v>
+      </c>
+      <c r="I36">
+        <v>-0.01994451228755135</v>
+      </c>
+      <c r="J36">
+        <v>0.01751870905930243</v>
+      </c>
+      <c r="K36">
+        <v>0.03624366257254269</v>
+      </c>
+      <c r="L36">
+        <v>-0.06098830967885677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.03077876118434746</v>
+        <v>0.01291860221764707</v>
       </c>
       <c r="C38">
-        <v>-0.05993076994601566</v>
+        <v>-0.06367176702599292</v>
       </c>
       <c r="D38">
-        <v>0.04406328473136824</v>
+        <v>0.04202394461897546</v>
       </c>
       <c r="E38">
-        <v>0.004771064462245714</v>
+        <v>-0.024392133430428</v>
       </c>
       <c r="F38">
-        <v>0.01267594758166937</v>
+        <v>0.01800893935249961</v>
       </c>
       <c r="G38">
-        <v>0.005334931911913162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.007310832499199914</v>
+      </c>
+      <c r="H38">
+        <v>-0.08818211265198955</v>
+      </c>
+      <c r="I38">
+        <v>0.05700918840731722</v>
+      </c>
+      <c r="J38">
+        <v>0.01941206748276758</v>
+      </c>
+      <c r="K38">
+        <v>-0.04806434104991279</v>
+      </c>
+      <c r="L38">
+        <v>-0.1128717160430558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.001805756159507215</v>
+        <v>0.0169627877546093</v>
       </c>
       <c r="C39">
-        <v>-0.1340265217140134</v>
+        <v>-0.1279222686393256</v>
       </c>
       <c r="D39">
-        <v>0.03916555447155848</v>
+        <v>0.05474759864505926</v>
       </c>
       <c r="E39">
-        <v>-0.01303562660794923</v>
+        <v>0.004951612691511028</v>
       </c>
       <c r="F39">
-        <v>0.03275818546591987</v>
+        <v>-0.001007190064713936</v>
       </c>
       <c r="G39">
-        <v>0.06949315868312206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0388306924579095</v>
+      </c>
+      <c r="H39">
+        <v>-0.05016734153954149</v>
+      </c>
+      <c r="I39">
+        <v>-0.06553265709238916</v>
+      </c>
+      <c r="J39">
+        <v>-0.02860955860759826</v>
+      </c>
+      <c r="K39">
+        <v>0.0206822622351556</v>
+      </c>
+      <c r="L39">
+        <v>-0.07742995684358901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.008484392761752288</v>
+        <v>0.01354221048904252</v>
       </c>
       <c r="C40">
-        <v>-0.02759834041411786</v>
+        <v>-0.05890514327920821</v>
       </c>
       <c r="D40">
-        <v>0.03234589838687446</v>
+        <v>0.03696299917613677</v>
       </c>
       <c r="E40">
-        <v>-0.1266637269783397</v>
+        <v>0.04350198779397747</v>
       </c>
       <c r="F40">
-        <v>0.05175209992818754</v>
+        <v>0.02849082180317251</v>
       </c>
       <c r="G40">
-        <v>0.08305588596903093</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1502814202627005</v>
+      </c>
+      <c r="H40">
+        <v>-0.04238996196126265</v>
+      </c>
+      <c r="I40">
+        <v>-0.01235485211297236</v>
+      </c>
+      <c r="J40">
+        <v>0.08123065638802753</v>
+      </c>
+      <c r="K40">
+        <v>-0.2619808987648856</v>
+      </c>
+      <c r="L40">
+        <v>-0.0005345733333507103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.008814392242642624</v>
+        <v>0.02118529411044034</v>
       </c>
       <c r="C41">
-        <v>-0.02083583019071637</v>
+        <v>-0.04716275597746861</v>
       </c>
       <c r="D41">
-        <v>0.006629258772981158</v>
+        <v>0.01717287837602404</v>
       </c>
       <c r="E41">
-        <v>0.02281636849139305</v>
+        <v>-0.009622144302580142</v>
       </c>
       <c r="F41">
-        <v>-0.03185739763194515</v>
+        <v>-0.02550928406260083</v>
       </c>
       <c r="G41">
-        <v>-0.03359184882808549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01227972893024451</v>
+      </c>
+      <c r="H41">
+        <v>-0.02553683045671249</v>
+      </c>
+      <c r="I41">
+        <v>0.02303453483866935</v>
+      </c>
+      <c r="J41">
+        <v>0.01430003826048946</v>
+      </c>
+      <c r="K41">
+        <v>-0.05895134206649722</v>
+      </c>
+      <c r="L41">
+        <v>-0.01554242235878624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.002223541630322158</v>
+        <v>0.01817876069540059</v>
       </c>
       <c r="C43">
-        <v>-0.0204259764364742</v>
+        <v>-0.04422221591555221</v>
       </c>
       <c r="D43">
-        <v>0.01108773933504644</v>
+        <v>0.02965166448174801</v>
       </c>
       <c r="E43">
-        <v>0.01145595229148933</v>
+        <v>-0.01371912111889383</v>
       </c>
       <c r="F43">
-        <v>-0.0006120704379136092</v>
+        <v>-0.00894264343316529</v>
       </c>
       <c r="G43">
-        <v>-0.004485096727927867</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.004286536774990077</v>
+      </c>
+      <c r="H43">
+        <v>-0.04372962161784454</v>
+      </c>
+      <c r="I43">
+        <v>-0.0008974335297480959</v>
+      </c>
+      <c r="J43">
+        <v>-0.003452100135591393</v>
+      </c>
+      <c r="K43">
+        <v>-0.04639322923831892</v>
+      </c>
+      <c r="L43">
+        <v>-0.01507284368995737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.02484123212446225</v>
+        <v>0.01410946678661952</v>
       </c>
       <c r="C44">
-        <v>-0.09672735684842169</v>
+        <v>-0.09695465662001672</v>
       </c>
       <c r="D44">
-        <v>0.02400823975862582</v>
+        <v>0.05701038643260542</v>
       </c>
       <c r="E44">
-        <v>-0.04948941349255947</v>
+        <v>-0.001909236633537988</v>
       </c>
       <c r="F44">
-        <v>0.06057777781013107</v>
+        <v>0.06379307298246822</v>
       </c>
       <c r="G44">
-        <v>0.03149756068162359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04267622928699804</v>
+      </c>
+      <c r="H44">
+        <v>-0.05326958652938041</v>
+      </c>
+      <c r="I44">
+        <v>-0.04719758998377675</v>
+      </c>
+      <c r="J44">
+        <v>-0.02720739123812439</v>
+      </c>
+      <c r="K44">
+        <v>0.08165371292897866</v>
+      </c>
+      <c r="L44">
+        <v>0.01104084556418133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.006971351448459172</v>
+        <v>0.003966117171325178</v>
       </c>
       <c r="C46">
-        <v>-0.07414783015843351</v>
+        <v>-0.06533821327346408</v>
       </c>
       <c r="D46">
-        <v>0.04283534454604601</v>
+        <v>0.03100041674521322</v>
       </c>
       <c r="E46">
-        <v>-0.0246869545384844</v>
+        <v>0.009899610908469286</v>
       </c>
       <c r="F46">
-        <v>0.01135932117978738</v>
+        <v>-0.01861859356280144</v>
       </c>
       <c r="G46">
-        <v>0.05570833920509916</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03359061040172105</v>
+      </c>
+      <c r="H46">
+        <v>-0.105018886033068</v>
+      </c>
+      <c r="I46">
+        <v>-0.009692691181301465</v>
+      </c>
+      <c r="J46">
+        <v>-0.01586113867272762</v>
+      </c>
+      <c r="K46">
+        <v>-0.07373546210805923</v>
+      </c>
+      <c r="L46">
+        <v>0.04485937006871395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.009577003433174323</v>
+        <v>0.02391474055383322</v>
       </c>
       <c r="C47">
-        <v>-0.08760005980758326</v>
+        <v>-0.08310796322603189</v>
       </c>
       <c r="D47">
-        <v>0.04442811379512975</v>
+        <v>0.04564988442103356</v>
       </c>
       <c r="E47">
-        <v>0.02024858663451605</v>
+        <v>0.004157738842398689</v>
       </c>
       <c r="F47">
-        <v>-0.03156887727058556</v>
+        <v>-0.02268690068148817</v>
       </c>
       <c r="G47">
-        <v>0.05297057175682338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.00472931689413738</v>
+      </c>
+      <c r="H47">
+        <v>-0.07158361455262566</v>
+      </c>
+      <c r="I47">
+        <v>0.02192049288116944</v>
+      </c>
+      <c r="J47">
+        <v>0.01075230341769174</v>
+      </c>
+      <c r="K47">
+        <v>-0.04273708884193483</v>
+      </c>
+      <c r="L47">
+        <v>-0.04396292529182533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.01204279876842709</v>
+        <v>0.02176205474426262</v>
       </c>
       <c r="C48">
-        <v>-0.05820303365708489</v>
+        <v>-0.05332762489895952</v>
       </c>
       <c r="D48">
-        <v>0.0580610420428269</v>
+        <v>0.05546419953292109</v>
       </c>
       <c r="E48">
-        <v>0.0002341735073003762</v>
+        <v>-0.003795364339036685</v>
       </c>
       <c r="F48">
-        <v>-0.001322755949332045</v>
+        <v>-0.007694820098567807</v>
       </c>
       <c r="G48">
-        <v>0.02093131193745136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005869017920845591</v>
+      </c>
+      <c r="H48">
+        <v>-0.09746573440424151</v>
+      </c>
+      <c r="I48">
+        <v>-0.03778746969715097</v>
+      </c>
+      <c r="J48">
+        <v>0.03105081232325492</v>
+      </c>
+      <c r="K48">
+        <v>0.08471261722758335</v>
+      </c>
+      <c r="L48">
+        <v>-0.07006394074659894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007548189285232901</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02628475528204632</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0007242751040095409</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.01559706248814158</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03020005930951424</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03328999700879021</v>
+      </c>
+      <c r="H49">
+        <v>0.01930526433337358</v>
+      </c>
+      <c r="I49">
+        <v>-0.06130591868654049</v>
+      </c>
+      <c r="J49">
+        <v>0.03985549387727824</v>
+      </c>
+      <c r="K49">
+        <v>0.03305444187637465</v>
+      </c>
+      <c r="L49">
+        <v>-0.001212201301821643</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.001843984908908049</v>
+        <v>0.01369882853054426</v>
       </c>
       <c r="C50">
-        <v>-0.07508167095860434</v>
+        <v>-0.07968406502817586</v>
       </c>
       <c r="D50">
-        <v>0.02838843084324394</v>
+        <v>0.02912505363830026</v>
       </c>
       <c r="E50">
-        <v>0.000431643471417971</v>
+        <v>-7.146647070797822e-05</v>
       </c>
       <c r="F50">
-        <v>0.009806469862556847</v>
+        <v>0.002214535829390739</v>
       </c>
       <c r="G50">
-        <v>0.004398462447204117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.014119544751783</v>
+      </c>
+      <c r="H50">
+        <v>-0.06002225225709153</v>
+      </c>
+      <c r="I50">
+        <v>0.03499972798761913</v>
+      </c>
+      <c r="J50">
+        <v>0.02451717418479995</v>
+      </c>
+      <c r="K50">
+        <v>-0.03332796797985851</v>
+      </c>
+      <c r="L50">
+        <v>-0.02953989340691978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.002850105800863212</v>
+        <v>-0.006809434754581426</v>
       </c>
       <c r="C51">
-        <v>-0.07716661917975869</v>
+        <v>-0.03729022970509297</v>
       </c>
       <c r="D51">
-        <v>0.004209304616550716</v>
+        <v>0.02259641357088137</v>
       </c>
       <c r="E51">
-        <v>-0.06305906782691677</v>
+        <v>0.02113187185539069</v>
       </c>
       <c r="F51">
-        <v>0.0512113218175497</v>
+        <v>0.02316200856316642</v>
       </c>
       <c r="G51">
-        <v>0.01183992086545717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02786651691822285</v>
+      </c>
+      <c r="H51">
+        <v>-0.0955093870507534</v>
+      </c>
+      <c r="I51">
+        <v>-0.01702135206719615</v>
+      </c>
+      <c r="J51">
+        <v>0.03048560894976519</v>
+      </c>
+      <c r="K51">
+        <v>0.1141072391011141</v>
+      </c>
+      <c r="L51">
+        <v>0.03237543380971198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.04379957324963798</v>
+        <v>0.05807626003950081</v>
       </c>
       <c r="C53">
-        <v>-0.1350863058501979</v>
+        <v>-0.1317808733909549</v>
       </c>
       <c r="D53">
-        <v>0.06322929824683961</v>
+        <v>0.05622208201892044</v>
       </c>
       <c r="E53">
-        <v>0.1309370476239704</v>
+        <v>-0.01100577394957882</v>
       </c>
       <c r="F53">
-        <v>-0.05383897272501722</v>
+        <v>-0.06928148740171051</v>
       </c>
       <c r="G53">
-        <v>-0.02785122660469836</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08549422980139612</v>
+      </c>
+      <c r="H53">
+        <v>0.03242725058937428</v>
+      </c>
+      <c r="I53">
+        <v>0.03474597833181957</v>
+      </c>
+      <c r="J53">
+        <v>0.03342442594897888</v>
+      </c>
+      <c r="K53">
+        <v>-0.02451490345171778</v>
+      </c>
+      <c r="L53">
+        <v>-0.1010985105020968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.005767850631961372</v>
+        <v>0.01891952423002616</v>
       </c>
       <c r="C54">
-        <v>-0.07374600313763437</v>
+        <v>-0.07869808187286424</v>
       </c>
       <c r="D54">
-        <v>0.008433026365064608</v>
+        <v>0.01276698903159985</v>
       </c>
       <c r="E54">
-        <v>0.02550448992457147</v>
+        <v>0.003693419055502147</v>
       </c>
       <c r="F54">
-        <v>-0.006175132329957843</v>
+        <v>-0.02574539851717033</v>
       </c>
       <c r="G54">
-        <v>0.02269657696164556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01469993156640565</v>
+      </c>
+      <c r="H54">
+        <v>-0.05519489021289152</v>
+      </c>
+      <c r="I54">
+        <v>-0.03597994171309981</v>
+      </c>
+      <c r="J54">
+        <v>0.009383287637697784</v>
+      </c>
+      <c r="K54">
+        <v>-0.01001221419080454</v>
+      </c>
+      <c r="L54">
+        <v>0.01045757266796373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.02631155681226288</v>
+        <v>0.03363478056237386</v>
       </c>
       <c r="C55">
-        <v>-0.09704074960416438</v>
+        <v>-0.08855457556807338</v>
       </c>
       <c r="D55">
-        <v>0.06559239128000839</v>
+        <v>0.0542241337239151</v>
       </c>
       <c r="E55">
-        <v>0.06149694947530502</v>
+        <v>-0.01563637866727876</v>
       </c>
       <c r="F55">
-        <v>-0.04686099985238808</v>
+        <v>-0.05109403407013252</v>
       </c>
       <c r="G55">
-        <v>0.006165064733727662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04400109976904718</v>
+      </c>
+      <c r="H55">
+        <v>0.01811262963961959</v>
+      </c>
+      <c r="I55">
+        <v>-0.01590966989262067</v>
+      </c>
+      <c r="J55">
+        <v>0.01690627187255114</v>
+      </c>
+      <c r="K55">
+        <v>-0.01151753651888516</v>
+      </c>
+      <c r="L55">
+        <v>-0.05727200861166973</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.02893099356207487</v>
+        <v>0.04583491748313254</v>
       </c>
       <c r="C56">
-        <v>-0.1703323722302441</v>
+        <v>-0.1526768108506975</v>
       </c>
       <c r="D56">
-        <v>0.05457695485073412</v>
+        <v>0.07764411216711513</v>
       </c>
       <c r="E56">
-        <v>0.1201144180766417</v>
+        <v>0.002879445017545039</v>
       </c>
       <c r="F56">
-        <v>-0.1011736922599356</v>
+        <v>-0.09473059692787107</v>
       </c>
       <c r="G56">
-        <v>-0.06074445236267056</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1567754996772745</v>
+      </c>
+      <c r="H56">
+        <v>0.05140860471222568</v>
+      </c>
+      <c r="I56">
+        <v>0.01387678262868952</v>
+      </c>
+      <c r="J56">
+        <v>0.035458594544422</v>
+      </c>
+      <c r="K56">
+        <v>0.02109569403207983</v>
+      </c>
+      <c r="L56">
+        <v>-0.06013453253750928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.03588590961012565</v>
+        <v>0.02131762030026466</v>
       </c>
       <c r="C58">
-        <v>-0.2713290176877524</v>
+        <v>-0.1760255282943898</v>
       </c>
       <c r="D58">
-        <v>-0.05916301987232898</v>
+        <v>0.03871311389640785</v>
       </c>
       <c r="E58">
-        <v>-0.2328722358696678</v>
+        <v>0.05051746062948351</v>
       </c>
       <c r="F58">
-        <v>0.2858253533056085</v>
+        <v>0.3242691923843765</v>
       </c>
       <c r="G58">
-        <v>-0.2422850760610813</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.05959788485956549</v>
+      </c>
+      <c r="H58">
+        <v>-0.05024355016145233</v>
+      </c>
+      <c r="I58">
+        <v>0.08949580990341759</v>
+      </c>
+      <c r="J58">
+        <v>-0.08853662728252447</v>
+      </c>
+      <c r="K58">
+        <v>0.4168644011548744</v>
+      </c>
+      <c r="L58">
+        <v>0.1874458619602454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.2795519549462133</v>
+        <v>0.2881459034167104</v>
       </c>
       <c r="C59">
-        <v>0.004762046288825218</v>
+        <v>0.04325141011202973</v>
       </c>
       <c r="D59">
-        <v>-0.03322022972629791</v>
+        <v>-0.006202970274750232</v>
       </c>
       <c r="E59">
-        <v>-0.05300613146534447</v>
+        <v>0.03657882973161176</v>
       </c>
       <c r="F59">
-        <v>-0.04272116353379393</v>
+        <v>0.03671923749585856</v>
       </c>
       <c r="G59">
-        <v>0.02658838177090119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002798355424251885</v>
+      </c>
+      <c r="H59">
+        <v>0.02000719809098055</v>
+      </c>
+      <c r="I59">
+        <v>0.02154459035438025</v>
+      </c>
+      <c r="J59">
+        <v>0.0132796645350755</v>
+      </c>
+      <c r="K59">
+        <v>-0.02421616398645424</v>
+      </c>
+      <c r="L59">
+        <v>-0.02358666505699431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.1137810981310119</v>
+        <v>0.1487419092792664</v>
       </c>
       <c r="C60">
-        <v>-0.1515567521846655</v>
+        <v>-0.1575620594015639</v>
       </c>
       <c r="D60">
-        <v>0.0739934598270912</v>
+        <v>0.04552898496629705</v>
       </c>
       <c r="E60">
-        <v>0.05636006192653832</v>
+        <v>0.002200640117375465</v>
       </c>
       <c r="F60">
-        <v>-0.005433590449379859</v>
+        <v>-0.1233306657560932</v>
       </c>
       <c r="G60">
-        <v>0.3032900192784828</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2575782872474885</v>
+      </c>
+      <c r="H60">
+        <v>0.2271121772018799</v>
+      </c>
+      <c r="I60">
+        <v>-0.01451536277126773</v>
+      </c>
+      <c r="J60">
+        <v>-0.03485116694521669</v>
+      </c>
+      <c r="K60">
+        <v>0.02264671055729756</v>
+      </c>
+      <c r="L60">
+        <v>0.1065626158540023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.002095029425366702</v>
+        <v>0.01984022485321624</v>
       </c>
       <c r="C61">
-        <v>-0.08782344948032694</v>
+        <v>-0.09665066274407277</v>
       </c>
       <c r="D61">
-        <v>0.04848702044161379</v>
+        <v>0.05096592389805017</v>
       </c>
       <c r="E61">
-        <v>0.02241317017109803</v>
+        <v>8.568318611192981e-05</v>
       </c>
       <c r="F61">
-        <v>0.002402212947120811</v>
+        <v>-0.03324250105724003</v>
       </c>
       <c r="G61">
-        <v>0.07250595757525437</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02249909787918101</v>
+      </c>
+      <c r="H61">
+        <v>-0.06286087301589686</v>
+      </c>
+      <c r="I61">
+        <v>-0.03840127750053852</v>
+      </c>
+      <c r="J61">
+        <v>0.01690432047932691</v>
+      </c>
+      <c r="K61">
+        <v>-0.01869292957762057</v>
+      </c>
+      <c r="L61">
+        <v>-0.04968685988845275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002091254785736515</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01325992283023491</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003676391587728951</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.001165471495484213</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01470755795727321</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01569603465012786</v>
+      </c>
+      <c r="H62">
+        <v>-0.007847737268917836</v>
+      </c>
+      <c r="I62">
+        <v>-0.01345399634392332</v>
+      </c>
+      <c r="J62">
+        <v>0.0644465327021205</v>
+      </c>
+      <c r="K62">
+        <v>-0.001447152376446844</v>
+      </c>
+      <c r="L62">
+        <v>0.06379430445549804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.0007399649255180674</v>
+        <v>0.02682052474608464</v>
       </c>
       <c r="C63">
-        <v>-0.07240125168359524</v>
+        <v>-0.07068079974831307</v>
       </c>
       <c r="D63">
-        <v>0.03854901349951387</v>
+        <v>0.05930565181255189</v>
       </c>
       <c r="E63">
-        <v>0.03094396229588696</v>
+        <v>0.001301520706425203</v>
       </c>
       <c r="F63">
-        <v>0.006838563869289274</v>
+        <v>-0.02379774646230879</v>
       </c>
       <c r="G63">
-        <v>0.03070527779833176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.002891129377570392</v>
+      </c>
+      <c r="H63">
+        <v>-0.0627109962690454</v>
+      </c>
+      <c r="I63">
+        <v>-0.02654211263755211</v>
+      </c>
+      <c r="J63">
+        <v>0.04285278398624937</v>
+      </c>
+      <c r="K63">
+        <v>-0.01501108093666885</v>
+      </c>
+      <c r="L63">
+        <v>-0.05144583740612674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.007158079866327688</v>
+        <v>0.01524976123386907</v>
       </c>
       <c r="C64">
-        <v>-0.08478199363956518</v>
+        <v>-0.09065479878440666</v>
       </c>
       <c r="D64">
-        <v>0.06565090086104494</v>
+        <v>0.03353450565191111</v>
       </c>
       <c r="E64">
-        <v>-0.01482798204241505</v>
+        <v>-0.01906408798206259</v>
       </c>
       <c r="F64">
-        <v>0.02378073971653518</v>
+        <v>0.03647826719733595</v>
       </c>
       <c r="G64">
-        <v>0.0569363407255317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06729153121094013</v>
+      </c>
+      <c r="H64">
+        <v>-0.05079046063786615</v>
+      </c>
+      <c r="I64">
+        <v>-0.04686699940554746</v>
+      </c>
+      <c r="J64">
+        <v>0.03387627702274492</v>
+      </c>
+      <c r="K64">
+        <v>-0.01813537014136849</v>
+      </c>
+      <c r="L64">
+        <v>-0.1146164169148294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.01321195486683573</v>
+        <v>0.02986389155453623</v>
       </c>
       <c r="C65">
-        <v>-0.07401114054457363</v>
+        <v>-0.09415929411008213</v>
       </c>
       <c r="D65">
-        <v>0.027276892787266</v>
+        <v>0.01903284838874064</v>
       </c>
       <c r="E65">
-        <v>-0.0370202893605122</v>
+        <v>-0.02534934890370917</v>
       </c>
       <c r="F65">
-        <v>0.04511068519038811</v>
+        <v>0.01372326118366091</v>
       </c>
       <c r="G65">
-        <v>0.01966181128028619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.098870926968152</v>
+      </c>
+      <c r="H65">
+        <v>-0.008340376921368733</v>
+      </c>
+      <c r="I65">
+        <v>-0.0529424716548102</v>
+      </c>
+      <c r="J65">
+        <v>-0.07829252624248745</v>
+      </c>
+      <c r="K65">
+        <v>0.0950264469474805</v>
+      </c>
+      <c r="L65">
+        <v>-0.05225121086980595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.003510864084617728</v>
+        <v>0.01279954849552931</v>
       </c>
       <c r="C66">
-        <v>-0.1710835946928971</v>
+        <v>-0.1641139970820827</v>
       </c>
       <c r="D66">
-        <v>0.02232282940338726</v>
+        <v>0.04607758127099947</v>
       </c>
       <c r="E66">
-        <v>-0.05236815330715095</v>
+        <v>0.01960101508067976</v>
       </c>
       <c r="F66">
-        <v>0.02533159841085807</v>
+        <v>0.004116305914158191</v>
       </c>
       <c r="G66">
-        <v>0.0879325965180129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02268089055207255</v>
+      </c>
+      <c r="H66">
+        <v>-0.06005012576643021</v>
+      </c>
+      <c r="I66">
+        <v>-0.05721740609835977</v>
+      </c>
+      <c r="J66">
+        <v>0.002210170696888659</v>
+      </c>
+      <c r="K66">
+        <v>0.02432088772594223</v>
+      </c>
+      <c r="L66">
+        <v>-0.04027333015113371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.02854928682470293</v>
+        <v>0.02100939139999542</v>
       </c>
       <c r="C67">
-        <v>-0.0395608400602969</v>
+        <v>-0.05366665808151076</v>
       </c>
       <c r="D67">
-        <v>0.06370557776096084</v>
+        <v>0.04358722458921021</v>
       </c>
       <c r="E67">
-        <v>0.03880517950141932</v>
+        <v>-0.03141428947961031</v>
       </c>
       <c r="F67">
-        <v>0.001815336093435478</v>
+        <v>-0.01643923841134369</v>
       </c>
       <c r="G67">
-        <v>0.01738647241412578</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01678802763147756</v>
+      </c>
+      <c r="H67">
+        <v>-0.06356346669920618</v>
+      </c>
+      <c r="I67">
+        <v>0.05481024553817371</v>
+      </c>
+      <c r="J67">
+        <v>-0.003730739204995055</v>
+      </c>
+      <c r="K67">
+        <v>-0.06658380625673857</v>
+      </c>
+      <c r="L67">
+        <v>-0.09914460994827362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.2896892900649538</v>
+        <v>0.2951701829744496</v>
       </c>
       <c r="C68">
-        <v>0.04151406072248447</v>
+        <v>0.07015333854956454</v>
       </c>
       <c r="D68">
-        <v>-0.02851333759573406</v>
+        <v>-0.02660697050539215</v>
       </c>
       <c r="E68">
-        <v>-0.02906977106967008</v>
+        <v>0.01428100918992617</v>
       </c>
       <c r="F68">
-        <v>0.009955403451558275</v>
+        <v>0.03155375838242601</v>
       </c>
       <c r="G68">
-        <v>-0.01526222935693471</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01957306179665396</v>
+      </c>
+      <c r="H68">
+        <v>-0.02906539281522859</v>
+      </c>
+      <c r="I68">
+        <v>0.02055024045358991</v>
+      </c>
+      <c r="J68">
+        <v>0.08297124150162612</v>
+      </c>
+      <c r="K68">
+        <v>0.00643068800918872</v>
+      </c>
+      <c r="L68">
+        <v>0.01053620681594897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.01148313913738476</v>
+        <v>0.007265875636262745</v>
       </c>
       <c r="C69">
-        <v>-0.05781994429068479</v>
+        <v>-0.05232154314851657</v>
       </c>
       <c r="D69">
-        <v>0.0461250684607085</v>
+        <v>0.02332845001760655</v>
       </c>
       <c r="E69">
-        <v>0.01793762702940743</v>
+        <v>-0.0007295006081005233</v>
       </c>
       <c r="F69">
-        <v>0.005658491845081631</v>
+        <v>-0.01153461402086802</v>
       </c>
       <c r="G69">
-        <v>0.0203748800853281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02398156475728745</v>
+      </c>
+      <c r="H69">
+        <v>-0.04980089253351431</v>
+      </c>
+      <c r="I69">
+        <v>0.01822065717569178</v>
+      </c>
+      <c r="J69">
+        <v>0.007271987097742579</v>
+      </c>
+      <c r="K69">
+        <v>-0.0155961570365061</v>
+      </c>
+      <c r="L69">
+        <v>-0.04242548463058052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.2798905906884357</v>
+        <v>0.2765368900251284</v>
       </c>
       <c r="C71">
-        <v>0.05046147543935272</v>
+        <v>0.075266941949756</v>
       </c>
       <c r="D71">
-        <v>-0.03515708344038306</v>
+        <v>-0.02509970087161372</v>
       </c>
       <c r="E71">
-        <v>-0.02032564524502197</v>
+        <v>0.003064761074505694</v>
       </c>
       <c r="F71">
-        <v>0.02566410292899571</v>
+        <v>0.05848450278064368</v>
       </c>
       <c r="G71">
-        <v>-0.00278743718460853</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02315474821546583</v>
+      </c>
+      <c r="H71">
+        <v>-0.05304573466531503</v>
+      </c>
+      <c r="I71">
+        <v>0.109894750507665</v>
+      </c>
+      <c r="J71">
+        <v>0.07257692974502886</v>
+      </c>
+      <c r="K71">
+        <v>0.03331312730010726</v>
+      </c>
+      <c r="L71">
+        <v>-0.03527697669117622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.03161778435323898</v>
+        <v>0.05400894450350717</v>
       </c>
       <c r="C72">
-        <v>-0.1506808926618908</v>
+        <v>-0.1411903369661497</v>
       </c>
       <c r="D72">
-        <v>0.06311607725509578</v>
+        <v>0.04448215963794777</v>
       </c>
       <c r="E72">
-        <v>-0.01568168235457735</v>
+        <v>-0.00406570161228467</v>
       </c>
       <c r="F72">
-        <v>0.1040874844682272</v>
+        <v>-0.03016361093425277</v>
       </c>
       <c r="G72">
-        <v>0.09177427355884984</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0253470891397255</v>
+      </c>
+      <c r="H72">
+        <v>-0.02783984129101224</v>
+      </c>
+      <c r="I72">
+        <v>-0.1144770500829795</v>
+      </c>
+      <c r="J72">
+        <v>-0.04121022651539463</v>
+      </c>
+      <c r="K72">
+        <v>0.06273307504201379</v>
+      </c>
+      <c r="L72">
+        <v>-0.0451256966281741</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.0720757681482956</v>
+        <v>0.150757481403703</v>
       </c>
       <c r="C73">
-        <v>-0.1318919058109803</v>
+        <v>-0.1966636610724574</v>
       </c>
       <c r="D73">
-        <v>0.1145899219139761</v>
+        <v>0.08223225072296153</v>
       </c>
       <c r="E73">
-        <v>0.1389981391359956</v>
+        <v>-0.05571703001927878</v>
       </c>
       <c r="F73">
-        <v>0.02986914757097911</v>
+        <v>-0.2363566066763245</v>
       </c>
       <c r="G73">
-        <v>0.4104358007718377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3873588461472175</v>
+      </c>
+      <c r="H73">
+        <v>0.302992162738157</v>
+      </c>
+      <c r="I73">
+        <v>0.09566232524109557</v>
+      </c>
+      <c r="J73">
+        <v>-0.04351027474600967</v>
+      </c>
+      <c r="K73">
+        <v>0.06194734607759989</v>
+      </c>
+      <c r="L73">
+        <v>0.006827988741960016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.01902080655899925</v>
+        <v>0.0411113891633989</v>
       </c>
       <c r="C74">
-        <v>-0.0949981010664286</v>
+        <v>-0.1030198607775137</v>
       </c>
       <c r="D74">
-        <v>0.06967555283296706</v>
+        <v>0.04711783129521024</v>
       </c>
       <c r="E74">
-        <v>0.07834849674316435</v>
+        <v>-0.01946935913925032</v>
       </c>
       <c r="F74">
-        <v>-0.05437221528972205</v>
+        <v>-0.0419013212435999</v>
       </c>
       <c r="G74">
-        <v>-0.01598820108751161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.050561391001545</v>
+      </c>
+      <c r="H74">
+        <v>0.003971475106061586</v>
+      </c>
+      <c r="I74">
+        <v>-0.01637547870014716</v>
+      </c>
+      <c r="J74">
+        <v>0.05339079038914641</v>
+      </c>
+      <c r="K74">
+        <v>0.02389057008211087</v>
+      </c>
+      <c r="L74">
+        <v>-0.054963580389241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.0624624081872031</v>
+        <v>0.06370321304299939</v>
       </c>
       <c r="C75">
-        <v>-0.1419288205813234</v>
+        <v>-0.1645186602993182</v>
       </c>
       <c r="D75">
-        <v>0.08547838529014253</v>
+        <v>0.08274779020522829</v>
       </c>
       <c r="E75">
-        <v>0.1832165987358359</v>
+        <v>-0.08376610729473101</v>
       </c>
       <c r="F75">
-        <v>-0.09026831994748986</v>
+        <v>-0.09776449991936795</v>
       </c>
       <c r="G75">
-        <v>-0.1498299438920985</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2255267448740634</v>
+      </c>
+      <c r="H75">
+        <v>0.04042722245350801</v>
+      </c>
+      <c r="I75">
+        <v>0.1101424300991213</v>
+      </c>
+      <c r="J75">
+        <v>0.08612632169830035</v>
+      </c>
+      <c r="K75">
+        <v>-0.07921540803942381</v>
+      </c>
+      <c r="L75">
+        <v>-0.06902385512478071</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.02697856158965516</v>
+        <v>0.04292258684921953</v>
       </c>
       <c r="C76">
-        <v>-0.1154012634894461</v>
+        <v>-0.1237890263199227</v>
       </c>
       <c r="D76">
-        <v>0.05860734190681375</v>
+        <v>0.07181129841984069</v>
       </c>
       <c r="E76">
-        <v>0.09534469144583971</v>
+        <v>-0.02114357742321656</v>
       </c>
       <c r="F76">
-        <v>-0.09026569213210686</v>
+        <v>-0.08046710189990773</v>
       </c>
       <c r="G76">
-        <v>-0.00911253957333737</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08045413721996585</v>
+      </c>
+      <c r="H76">
+        <v>0.01947309810136646</v>
+      </c>
+      <c r="I76">
+        <v>-0.02681137542199652</v>
+      </c>
+      <c r="J76">
+        <v>0.07279918320065135</v>
+      </c>
+      <c r="K76">
+        <v>-0.02858058605716212</v>
+      </c>
+      <c r="L76">
+        <v>-0.1179081559318517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07382075060229643</v>
+        <v>0.04723961937231388</v>
       </c>
       <c r="C77">
-        <v>-0.3085026557881202</v>
+        <v>-0.3904032017285259</v>
       </c>
       <c r="D77">
-        <v>-0.8590113026545205</v>
+        <v>-0.9040379275981345</v>
       </c>
       <c r="E77">
-        <v>0.3049154357408508</v>
+        <v>-0.06057709345921555</v>
       </c>
       <c r="F77">
-        <v>-0.01538691226886263</v>
+        <v>-0.07312069019280969</v>
       </c>
       <c r="G77">
-        <v>0.05699508024089785</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03357689447426158</v>
+      </c>
+      <c r="H77">
+        <v>-0.0529509599600587</v>
+      </c>
+      <c r="I77">
+        <v>-0.0080806295061478</v>
+      </c>
+      <c r="J77">
+        <v>0.02946157865174153</v>
+      </c>
+      <c r="K77">
+        <v>0.001331081633218644</v>
+      </c>
+      <c r="L77">
+        <v>0.01027069085763787</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.03127956094682249</v>
+        <v>0.03489974234656325</v>
       </c>
       <c r="C78">
-        <v>-0.1442744519780466</v>
+        <v>-0.1152006944303757</v>
       </c>
       <c r="D78">
-        <v>0.09450434442009033</v>
+        <v>0.09701438535590012</v>
       </c>
       <c r="E78">
-        <v>-0.07044100137237268</v>
+        <v>0.0445562154149314</v>
       </c>
       <c r="F78">
-        <v>-0.1047722195810174</v>
+        <v>-0.01014457251051522</v>
       </c>
       <c r="G78">
-        <v>-0.02603396714299636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1218772682997761</v>
+      </c>
+      <c r="H78">
+        <v>-0.04090797061277494</v>
+      </c>
+      <c r="I78">
+        <v>-0.05702328229008984</v>
+      </c>
+      <c r="J78">
+        <v>-0.05991641156946034</v>
+      </c>
+      <c r="K78">
+        <v>0.4346946758061374</v>
+      </c>
+      <c r="L78">
+        <v>0.05514254196314803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.03954632359889322</v>
+        <v>0.0565470558271234</v>
       </c>
       <c r="C79">
-        <v>-0.1680939849283088</v>
+        <v>-0.139883614297791</v>
       </c>
       <c r="D79">
-        <v>0.1109310289572586</v>
+        <v>0.06828369882512195</v>
       </c>
       <c r="E79">
-        <v>0.126322012431514</v>
+        <v>-0.01094088509548444</v>
       </c>
       <c r="F79">
-        <v>-0.1402792994052229</v>
+        <v>-0.063021156863776</v>
       </c>
       <c r="G79">
-        <v>-0.1688060799484847</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2390799412180448</v>
+      </c>
+      <c r="H79">
+        <v>0.01058660657953339</v>
+      </c>
+      <c r="I79">
+        <v>0.07165068981138473</v>
+      </c>
+      <c r="J79">
+        <v>0.07454993047214641</v>
+      </c>
+      <c r="K79">
+        <v>0.05374231805871636</v>
+      </c>
+      <c r="L79">
+        <v>-0.064965714286482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.01063531207353389</v>
+        <v>0.02028884143528339</v>
       </c>
       <c r="C80">
-        <v>-0.04398819368338595</v>
+        <v>-0.04863009487021149</v>
       </c>
       <c r="D80">
-        <v>0.05155343743668069</v>
+        <v>0.03895659717186149</v>
       </c>
       <c r="E80">
-        <v>-0.00616340578199955</v>
+        <v>0.05443037009817554</v>
       </c>
       <c r="F80">
-        <v>-0.02905587326401173</v>
+        <v>0.008822341602677274</v>
       </c>
       <c r="G80">
-        <v>-0.003504440467123087</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.06071397824632781</v>
+      </c>
+      <c r="H80">
+        <v>0.02602293861603516</v>
+      </c>
+      <c r="I80">
+        <v>0.03995510221303656</v>
+      </c>
+      <c r="J80">
+        <v>0.01274732613727544</v>
+      </c>
+      <c r="K80">
+        <v>-0.07854458239412876</v>
+      </c>
+      <c r="L80">
+        <v>-0.077887478565874</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.009904602232890388</v>
+        <v>0.01642402338793781</v>
       </c>
       <c r="C81">
-        <v>-0.08504637240468665</v>
+        <v>-0.09994785627387143</v>
       </c>
       <c r="D81">
-        <v>0.07912305603304419</v>
+        <v>0.05488218480736417</v>
       </c>
       <c r="E81">
-        <v>0.1023298177402866</v>
+        <v>-0.002440273376753044</v>
       </c>
       <c r="F81">
-        <v>-0.09513884761840227</v>
+        <v>-0.05142988812467886</v>
       </c>
       <c r="G81">
-        <v>-0.04206391287456059</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1170183876018013</v>
+      </c>
+      <c r="H81">
+        <v>-0.03828758755039999</v>
+      </c>
+      <c r="I81">
+        <v>0.03753582957869162</v>
+      </c>
+      <c r="J81">
+        <v>0.05993961962437391</v>
+      </c>
+      <c r="K81">
+        <v>-0.02816921628333236</v>
+      </c>
+      <c r="L81">
+        <v>-0.08450116676469922</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.02904924557744366</v>
+        <v>0.04662776848778229</v>
       </c>
       <c r="C82">
-        <v>-0.09017388443485423</v>
+        <v>-0.1040939027192898</v>
       </c>
       <c r="D82">
-        <v>0.07237211168838062</v>
+        <v>0.0653282615133897</v>
       </c>
       <c r="E82">
-        <v>0.1152123074603072</v>
+        <v>-0.01395936137559623</v>
       </c>
       <c r="F82">
-        <v>-0.07264399055999059</v>
+        <v>-0.0739844917202058</v>
       </c>
       <c r="G82">
-        <v>-0.01271100311536727</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09600077597434802</v>
+      </c>
+      <c r="H82">
+        <v>-0.0004622190457101229</v>
+      </c>
+      <c r="I82">
+        <v>0.002819986023324098</v>
+      </c>
+      <c r="J82">
+        <v>0.05344707095823377</v>
+      </c>
+      <c r="K82">
+        <v>-0.01294359468445068</v>
+      </c>
+      <c r="L82">
+        <v>-0.1138997003488621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.001576309576477202</v>
+        <v>0.001828394900120086</v>
       </c>
       <c r="C83">
-        <v>-0.03690406253129117</v>
+        <v>0.01223474171828667</v>
       </c>
       <c r="D83">
-        <v>-0.1583119497715649</v>
+        <v>-0.06237369409137942</v>
       </c>
       <c r="E83">
-        <v>-0.4878369497602874</v>
+        <v>0.937878666415329</v>
       </c>
       <c r="F83">
-        <v>-0.767515412194866</v>
+        <v>-0.1903346487252503</v>
       </c>
       <c r="G83">
-        <v>0.1256456723737835</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05800175351347359</v>
+      </c>
+      <c r="H83">
+        <v>0.1123145358929148</v>
+      </c>
+      <c r="I83">
+        <v>-0.08270168159705403</v>
+      </c>
+      <c r="J83">
+        <v>0.00474702430100339</v>
+      </c>
+      <c r="K83">
+        <v>0.02405884226177352</v>
+      </c>
+      <c r="L83">
+        <v>-0.09336530555282416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.001608182046031613</v>
+        <v>-0.0008029906655678969</v>
       </c>
       <c r="C84">
-        <v>-0.0555737717889259</v>
+        <v>-0.0428165113768677</v>
       </c>
       <c r="D84">
-        <v>0.03462395326449476</v>
+        <v>0.06088723316248438</v>
       </c>
       <c r="E84">
-        <v>-0.08233369553533822</v>
+        <v>0.005565012712377511</v>
       </c>
       <c r="F84">
-        <v>0.1134059245351444</v>
+        <v>0.09585132891504192</v>
       </c>
       <c r="G84">
-        <v>-0.0901251076944828</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03677062679059642</v>
+      </c>
+      <c r="H84">
+        <v>-0.08489554984496593</v>
+      </c>
+      <c r="I84">
+        <v>-0.1170025783775196</v>
+      </c>
+      <c r="J84">
+        <v>-0.005507632262844473</v>
+      </c>
+      <c r="K84">
+        <v>-0.04857189818772856</v>
+      </c>
+      <c r="L84">
+        <v>-0.1343702381121475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.02082263424452077</v>
+        <v>0.02988540653256716</v>
       </c>
       <c r="C85">
-        <v>-0.1335172385574849</v>
+        <v>-0.1182288384379385</v>
       </c>
       <c r="D85">
-        <v>0.08596352863060301</v>
+        <v>0.08070478999621596</v>
       </c>
       <c r="E85">
-        <v>0.1328577850611851</v>
+        <v>-0.03272402314573711</v>
       </c>
       <c r="F85">
-        <v>-0.1424180853926703</v>
+        <v>-0.1272376679930001</v>
       </c>
       <c r="G85">
-        <v>-0.1073198932485266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2141350832804337</v>
+      </c>
+      <c r="H85">
+        <v>0.05126705761794043</v>
+      </c>
+      <c r="I85">
+        <v>0.03519987562677621</v>
+      </c>
+      <c r="J85">
+        <v>0.1495437992912431</v>
+      </c>
+      <c r="K85">
+        <v>-0.0366450447372622</v>
+      </c>
+      <c r="L85">
+        <v>-0.1243376949924987</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.02009901071235534</v>
+        <v>0.01605096930253564</v>
       </c>
       <c r="C86">
-        <v>-0.06942667287074104</v>
+        <v>-0.08256705393692922</v>
       </c>
       <c r="D86">
-        <v>-0.03144740674411502</v>
+        <v>0.0253588550637265</v>
       </c>
       <c r="E86">
-        <v>-0.02532059548414653</v>
+        <v>0.01880666878902817</v>
       </c>
       <c r="F86">
-        <v>0.0713840433810933</v>
+        <v>0.08560275844429703</v>
       </c>
       <c r="G86">
-        <v>0.02931561725483657</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05103466858418793</v>
+      </c>
+      <c r="H86">
+        <v>-0.008860973671685974</v>
+      </c>
+      <c r="I86">
+        <v>0.1839115149918152</v>
+      </c>
+      <c r="J86">
+        <v>-0.107183585828036</v>
+      </c>
+      <c r="K86">
+        <v>0.1382226259147324</v>
+      </c>
+      <c r="L86">
+        <v>-0.08850948765452063</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.04015249192758544</v>
+        <v>0.02658654752329371</v>
       </c>
       <c r="C87">
-        <v>-0.1486864881696721</v>
+        <v>-0.117570591692755</v>
       </c>
       <c r="D87">
-        <v>0.02316677693482791</v>
+        <v>0.01795405387098365</v>
       </c>
       <c r="E87">
-        <v>-0.1072837386638246</v>
+        <v>0.01185048004773987</v>
       </c>
       <c r="F87">
-        <v>0.02622385776325777</v>
+        <v>0.06994278754299088</v>
       </c>
       <c r="G87">
-        <v>-0.02520116866033811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.007378372486760151</v>
+      </c>
+      <c r="H87">
+        <v>-0.04106710395073826</v>
+      </c>
+      <c r="I87">
+        <v>-0.1011089478906483</v>
+      </c>
+      <c r="J87">
+        <v>0.04613380631612746</v>
+      </c>
+      <c r="K87">
+        <v>0.08262761442125716</v>
+      </c>
+      <c r="L87">
+        <v>0.03890230137365312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.006086485904357128</v>
+        <v>0.03815572214228784</v>
       </c>
       <c r="C88">
-        <v>-0.03890500067119784</v>
+        <v>-0.0635679414775442</v>
       </c>
       <c r="D88">
-        <v>0.04964561481344331</v>
+        <v>0.04235399348203701</v>
       </c>
       <c r="E88">
-        <v>0.06197884076925504</v>
+        <v>-0.0160634781380627</v>
       </c>
       <c r="F88">
-        <v>0.001539920349201325</v>
+        <v>-0.01902226013302413</v>
       </c>
       <c r="G88">
-        <v>0.01184438164725569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02386323378100741</v>
+      </c>
+      <c r="H88">
+        <v>-0.008538487936347556</v>
+      </c>
+      <c r="I88">
+        <v>0.01139204173017699</v>
+      </c>
+      <c r="J88">
+        <v>0.03368105761191086</v>
+      </c>
+      <c r="K88">
+        <v>-0.08845698214715554</v>
+      </c>
+      <c r="L88">
+        <v>-0.1124192305734222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.3872792769579841</v>
+        <v>0.3903533769052329</v>
       </c>
       <c r="C89">
-        <v>0.1018826991849351</v>
+        <v>0.1166871764264896</v>
       </c>
       <c r="D89">
-        <v>0.1054740503598914</v>
+        <v>-0.03316864558000754</v>
       </c>
       <c r="E89">
-        <v>-0.08799222703873984</v>
+        <v>-0.03286024830178375</v>
       </c>
       <c r="F89">
-        <v>0.02697779455140027</v>
+        <v>0.07837812496940598</v>
       </c>
       <c r="G89">
-        <v>-0.08895398275978869</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04165596209766635</v>
+      </c>
+      <c r="H89">
+        <v>-0.01984464316827057</v>
+      </c>
+      <c r="I89">
+        <v>-0.6958918407405532</v>
+      </c>
+      <c r="J89">
+        <v>-0.243757827104192</v>
+      </c>
+      <c r="K89">
+        <v>0.0007446120365782087</v>
+      </c>
+      <c r="L89">
+        <v>-0.03822134251974165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.3046598366226192</v>
+        <v>0.3143463308006186</v>
       </c>
       <c r="C90">
-        <v>0.03824060505471038</v>
+        <v>0.07630126629628274</v>
       </c>
       <c r="D90">
-        <v>-0.01691960618890093</v>
+        <v>-0.01810603086804014</v>
       </c>
       <c r="E90">
-        <v>-0.07312963188592024</v>
+        <v>0.02836604973148997</v>
       </c>
       <c r="F90">
-        <v>-0.02749347809343462</v>
+        <v>0.032338284492506</v>
       </c>
       <c r="G90">
-        <v>0.03530665870136038</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.008474203726366628</v>
+      </c>
+      <c r="H90">
+        <v>-0.02082978384848073</v>
+      </c>
+      <c r="I90">
+        <v>0.08130835777703121</v>
+      </c>
+      <c r="J90">
+        <v>0.03401979977133812</v>
+      </c>
+      <c r="K90">
+        <v>0.009580851257114912</v>
+      </c>
+      <c r="L90">
+        <v>0.02635971346803957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.0341868214749453</v>
+        <v>0.05266337256724763</v>
       </c>
       <c r="C91">
-        <v>-0.08635877759289226</v>
+        <v>-0.08542915643228347</v>
       </c>
       <c r="D91">
-        <v>0.04670230088883964</v>
+        <v>0.04335202459063271</v>
       </c>
       <c r="E91">
-        <v>0.06974090661307385</v>
+        <v>0.01300812107257968</v>
       </c>
       <c r="F91">
-        <v>-0.08026801987489893</v>
+        <v>-0.06292793584470111</v>
       </c>
       <c r="G91">
-        <v>-0.04291159101887598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07820614952016575</v>
+      </c>
+      <c r="H91">
+        <v>0.03143451482579933</v>
+      </c>
+      <c r="I91">
+        <v>-0.005133726828463655</v>
+      </c>
+      <c r="J91">
+        <v>0.02046896008784601</v>
+      </c>
+      <c r="K91">
+        <v>-0.05090262800099127</v>
+      </c>
+      <c r="L91">
+        <v>-0.03479640017485366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.383963799818105</v>
+        <v>0.3547602088806965</v>
       </c>
       <c r="C92">
-        <v>0.0889549675698441</v>
+        <v>0.1198812978514981</v>
       </c>
       <c r="D92">
-        <v>-0.01211535958403437</v>
+        <v>-0.0534565271408743</v>
       </c>
       <c r="E92">
-        <v>0.02703619594544395</v>
+        <v>-0.02818494288489509</v>
       </c>
       <c r="F92">
-        <v>0.09293554671363097</v>
+        <v>0.05748379068214331</v>
       </c>
       <c r="G92">
-        <v>-0.03639047885705616</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01187875659186332</v>
+      </c>
+      <c r="H92">
+        <v>-0.06883460288010955</v>
+      </c>
+      <c r="I92">
+        <v>0.1550573004400782</v>
+      </c>
+      <c r="J92">
+        <v>0.01957640648898493</v>
+      </c>
+      <c r="K92">
+        <v>-0.006825489605721812</v>
+      </c>
+      <c r="L92">
+        <v>0.04736378908825654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.2999911820432256</v>
+        <v>0.3108731770295189</v>
       </c>
       <c r="C93">
-        <v>0.08659253564491208</v>
+        <v>0.1115318801197789</v>
       </c>
       <c r="D93">
-        <v>0.008426077057749833</v>
+        <v>-0.008914379442316709</v>
       </c>
       <c r="E93">
-        <v>-0.06119249715348083</v>
+        <v>0.01214230582319404</v>
       </c>
       <c r="F93">
-        <v>0.01722091953726225</v>
+        <v>0.03666651048702606</v>
       </c>
       <c r="G93">
-        <v>-0.01678034533671474</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0394480627680382</v>
+      </c>
+      <c r="H93">
+        <v>-0.03094105106227262</v>
+      </c>
+      <c r="I93">
+        <v>0.1060079918084599</v>
+      </c>
+      <c r="J93">
+        <v>0.01048098478974754</v>
+      </c>
+      <c r="K93">
+        <v>0.008183099985031635</v>
+      </c>
+      <c r="L93">
+        <v>-0.04461355251598074</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.05157073279067392</v>
+        <v>0.07836588754460611</v>
       </c>
       <c r="C94">
-        <v>-0.2004411041298669</v>
+        <v>-0.164587092231901</v>
       </c>
       <c r="D94">
-        <v>0.1569351822641873</v>
+        <v>0.1032834830390464</v>
       </c>
       <c r="E94">
-        <v>0.2488837156912526</v>
+        <v>-0.04499459806271953</v>
       </c>
       <c r="F94">
-        <v>-0.264081446337259</v>
+        <v>-0.1415753138009149</v>
       </c>
       <c r="G94">
-        <v>-0.5086443594001603</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5308438326206867</v>
+      </c>
+      <c r="H94">
+        <v>0.2304670209107578</v>
+      </c>
+      <c r="I94">
+        <v>-0.1199813036981246</v>
+      </c>
+      <c r="J94">
+        <v>-0.1816556270066927</v>
+      </c>
+      <c r="K94">
+        <v>-0.2232642488650609</v>
+      </c>
+      <c r="L94">
+        <v>0.5398381031310399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.03557223570439042</v>
+        <v>0.03793122040539678</v>
       </c>
       <c r="C95">
-        <v>-0.1010199014798676</v>
+        <v>-0.128810124647009</v>
       </c>
       <c r="D95">
-        <v>0.03197383947218758</v>
+        <v>0.05881241306683184</v>
       </c>
       <c r="E95">
-        <v>0.04993438975402235</v>
+        <v>-0.04262445686875097</v>
       </c>
       <c r="F95">
-        <v>-0.07194636045650736</v>
+        <v>-0.07345810517382567</v>
       </c>
       <c r="G95">
-        <v>0.1468333671593047</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04981466147020667</v>
+      </c>
+      <c r="H95">
+        <v>-0.07490583868706414</v>
+      </c>
+      <c r="I95">
+        <v>-0.1932484796710738</v>
+      </c>
+      <c r="J95">
+        <v>0.1148317493761567</v>
+      </c>
+      <c r="K95">
+        <v>-0.1977711726073459</v>
+      </c>
+      <c r="L95">
+        <v>-0.1850489865182939</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>7.709883672189639e-05</v>
+        <v>0.01147204685891223</v>
       </c>
       <c r="C97">
-        <v>-0.0004945080882850501</v>
+        <v>-0.01680229880025511</v>
       </c>
       <c r="D97">
-        <v>-0.0001933527004477054</v>
+        <v>-0.009035851983223868</v>
       </c>
       <c r="E97">
-        <v>-0.0001714210063968096</v>
+        <v>-0.02699032863263368</v>
       </c>
       <c r="F97">
-        <v>0.001069988668984798</v>
+        <v>0.01579942900571601</v>
       </c>
       <c r="G97">
-        <v>-0.001647725150773716</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02764860672019178</v>
+      </c>
+      <c r="H97">
+        <v>-0.0377194708630892</v>
+      </c>
+      <c r="I97">
+        <v>0.004696139965416701</v>
+      </c>
+      <c r="J97">
+        <v>-0.1218836448862047</v>
+      </c>
+      <c r="K97">
+        <v>-0.01990468889268474</v>
+      </c>
+      <c r="L97">
+        <v>-0.04645936676131103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.08992939069950101</v>
+        <v>0.131353446898576</v>
       </c>
       <c r="C98">
-        <v>-0.1529526807110645</v>
+        <v>-0.1600156893620428</v>
       </c>
       <c r="D98">
-        <v>0.1224543698519469</v>
+        <v>0.09044678322067701</v>
       </c>
       <c r="E98">
-        <v>0.07009539130429894</v>
+        <v>-0.04827259940425067</v>
       </c>
       <c r="F98">
-        <v>0.02419746724192877</v>
+        <v>-0.20917271652841</v>
       </c>
       <c r="G98">
-        <v>0.2776568793469994</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3313800633949579</v>
+      </c>
+      <c r="H98">
+        <v>0.3348629639860383</v>
+      </c>
+      <c r="I98">
+        <v>0.1158467372734564</v>
+      </c>
+      <c r="J98">
+        <v>-0.06125388298459557</v>
+      </c>
+      <c r="K98">
+        <v>0.08108892424234795</v>
+      </c>
+      <c r="L98">
+        <v>0.2000789623952282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01102747359086345</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04504964252327866</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.0005881574564309267</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.02376386878795785</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.06518446315183866</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.07403845416314576</v>
+      </c>
+      <c r="H99">
+        <v>-0.07719762058465914</v>
+      </c>
+      <c r="I99">
+        <v>0.2151369009179999</v>
+      </c>
+      <c r="J99">
+        <v>-0.8317690209045806</v>
+      </c>
+      <c r="K99">
+        <v>-0.07843014807319011</v>
+      </c>
+      <c r="L99">
+        <v>-0.2916239548382376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.007895343948591826</v>
+        <v>0.01365518069295444</v>
       </c>
       <c r="C101">
-        <v>-0.07321548368914688</v>
+        <v>-0.08029485099805542</v>
       </c>
       <c r="D101">
-        <v>0.04073010339374189</v>
+        <v>0.0531075720572643</v>
       </c>
       <c r="E101">
-        <v>-0.03271120399525629</v>
+        <v>0.05765774957330588</v>
       </c>
       <c r="F101">
-        <v>0.008538785838554303</v>
+        <v>-0.01811111796982584</v>
       </c>
       <c r="G101">
-        <v>0.09123640158084872</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.109976252214266</v>
+      </c>
+      <c r="H101">
+        <v>-0.2959542480443911</v>
+      </c>
+      <c r="I101">
+        <v>-0.02561831342068412</v>
+      </c>
+      <c r="J101">
+        <v>-0.05312901913532297</v>
+      </c>
+      <c r="K101">
+        <v>-0.1593739948591269</v>
+      </c>
+      <c r="L101">
+        <v>0.278791737384017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>0.009276720448891886</v>
+        <v>0.003476045444898806</v>
       </c>
       <c r="C102">
-        <v>-0.02800692293219526</v>
+        <v>-0.01076683399308515</v>
       </c>
       <c r="D102">
-        <v>0.006900110199170345</v>
+        <v>0.0006246864267034998</v>
       </c>
       <c r="E102">
-        <v>0.02250156198217373</v>
+        <v>0.003478932551640748</v>
       </c>
       <c r="F102">
-        <v>-0.02911108612583157</v>
+        <v>-0.008621040023490168</v>
       </c>
       <c r="G102">
-        <v>0.001129312535493167</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.006586242594767125</v>
+      </c>
+      <c r="H102">
+        <v>-0.0009613969606892967</v>
+      </c>
+      <c r="I102">
+        <v>-0.01610148055578202</v>
+      </c>
+      <c r="J102">
+        <v>-0.01142565795054818</v>
+      </c>
+      <c r="K102">
+        <v>0.002676508183977203</v>
+      </c>
+      <c r="L102">
+        <v>0.02825318908313683</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
